--- a/data/trans_dic/P57_AC_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Edad-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeCdic</t>
+          <t>Población con apoyo confidencial bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P57_AC_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P57_AC_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,92%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,92%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,62%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,86%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,38%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>54,64; 63,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>52,51; 61,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>71,05; 79,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>37,94; 54,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>56,59; 65,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>57,82; 66,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>70,7; 79,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>39,74; 54,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>56,86; 62,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>56,41; 62,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>71,88; 77,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>40,55; 52,05</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,46%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,1%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,81%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,53%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>59,63; 66,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>58,98; 66,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>73,49; 80,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>53,47; 65,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>62,01; 69,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>65,67; 73,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>75,02; 81,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>47,47; 59,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>61,73; 67,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>63,49; 68,59</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>75,12; 80,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>52,28; 60,9</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,84%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,6%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,06%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,55%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,47%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,46%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,56%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,88%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>64,61; 72,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>64,88; 72,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>74,7; 81,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>57,35; 65,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>66,67; 73,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>70,92; 77,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>76,53; 82,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>56,9; 63,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>66,86; 72,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>69,3; 73,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>76,51; 81,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>58,27; 63,79</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,67%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,54%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>66,46; 74,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>64,61; 72,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>77,51; 84,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>43,57; 63,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>65,47; 74,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>75,01; 81,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>80,73; 86,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>60,05; 66,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>67,39; 73,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>70,5; 75,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>80,04; 84,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>53,55; 63,72</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,43%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,14%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,29%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,78%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,66%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,48%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,9%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,84%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,61%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,92%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,62%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,3%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>65,68; 75,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>59,16; 69,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>77,38; 84,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>64,98; 72,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>72,03; 80,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>68,83; 77,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>80,11; 87,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>68,69; 74,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>70,48; 76,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>65,29; 71,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>80,07; 85,04</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>67,93; 72,52</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,81%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,94%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,77%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,96%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,05%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>74,09; 81,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>70,02; 78,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>77,21; 84,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>66,22; 72,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>76,54; 82,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>73,41; 79,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>85,0; 90,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>68,65; 72,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>76,45; 81,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>73,15; 77,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>82,75; 86,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>68,32; 71,99</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,99%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,35%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,06%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,52%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,21%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,1%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,27%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,38%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,85%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,61%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,43%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>66,57; 69,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>64,64; 67,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>77,74; 80,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>58,09; 63,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>69,18; 72,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>71,74; 74,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>80,88; 83,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>61,76; 64,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>68,15; 70,43</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>68,75; 70,93</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>79,62; 81,57</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>60,77; 63,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_AC_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>45,86%</t>
+          <t>43,42%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>46,94%</t>
+          <t>44,59%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>46,38%</t>
+          <t>43,93%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,94; 54,45</t>
+          <t>35,26; 52,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,74; 54,63</t>
+          <t>37,07; 52,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>40,55; 52,05</t>
+          <t>38,09; 49,86</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>59,92%</t>
+          <t>58,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>53,6%</t>
+          <t>47,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>56,53%</t>
+          <t>52,43%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,47; 65,72</t>
+          <t>52,2; 64,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,47; 59,22</t>
+          <t>30,01; 56,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>52,28; 60,9</t>
+          <t>39,98; 58,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>61,55%</t>
+          <t>60,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>60,47%</t>
+          <t>59,91%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>61,0%</t>
+          <t>60,26%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>57,35; 65,94</t>
+          <t>56,41; 65,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>56,9; 63,92</t>
+          <t>56,47; 63,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>58,27; 63,79</t>
+          <t>57,36; 63,03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,33%</t>
+          <t>44,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>63,65%</t>
+          <t>60,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>60,54%</t>
+          <t>51,61%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>43,57; 63,15</t>
+          <t>19,54; 62,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>60,05; 66,96</t>
+          <t>51,43; 65,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>53,55; 63,72</t>
+          <t>32,09; 62,21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>68,78%</t>
+          <t>67,94%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>71,84%</t>
+          <t>71,35%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>70,3%</t>
+          <t>69,62%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>64,98; 72,11</t>
+          <t>64,13; 71,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>68,69; 74,56</t>
+          <t>68,2; 74,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>67,93; 72,52</t>
+          <t>67,2; 71,86</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>78,09%</t>
+          <t>77,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>74,4%</t>
+          <t>73,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>80,92%</t>
+          <t>78,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>69,07%</t>
+          <t>66,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>79,56%</t>
+          <t>77,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>76,81%</t>
+          <t>76,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>88,03%</t>
+          <t>88,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>70,8%</t>
+          <t>65,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>78,94%</t>
+          <t>77,46%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>75,77%</t>
+          <t>75,16%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>84,96%</t>
+          <t>83,8%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>70,05%</t>
+          <t>65,92%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>74,09; 81,42</t>
+          <t>72,82; 82,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>70,02; 78,01</t>
+          <t>68,32; 78,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>77,21; 84,14</t>
+          <t>73,01; 82,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>66,22; 72,18</t>
+          <t>62,27; 69,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>76,54; 82,39</t>
+          <t>73,07; 81,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>73,41; 79,97</t>
+          <t>71,93; 80,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>85,0; 90,34</t>
+          <t>85,22; 91,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>68,65; 72,95</t>
+          <t>62,43; 69,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>76,45; 81,03</t>
+          <t>73,95; 80,42</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>73,15; 77,89</t>
+          <t>71,63; 78,51</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>82,75; 86,98</t>
+          <t>80,99; 86,42</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>68,32; 71,99</t>
+          <t>63,34; 68,44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>67,99%</t>
+          <t>79,27%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>66,35%</t>
+          <t>75,42%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>79,06%</t>
+          <t>84,36%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>61,52%</t>
+          <t>70,99%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>70,73%</t>
+          <t>81,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>73,21%</t>
+          <t>77,05%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>82,1%</t>
+          <t>87,39%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>63,27%</t>
+          <t>74,5%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>69,38%</t>
+          <t>80,66%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>69,85%</t>
+          <t>76,41%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>80,61%</t>
+          <t>86,2%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>62,43%</t>
+          <t>73,1%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>73,18; 84,4</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>69,51; 80,64</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>79,98; 88,1</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>66,17; 75,02</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>77,02; 85,79</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>72,14; 81,04</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>82,8; 90,57</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>71,23; 77,5</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>77,58; 84,03</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>72,73; 79,77</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>83,44; 88,83</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>70,7; 75,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>67,99%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>66,35%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>79,06%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>56,84%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>70,73%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>73,21%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>82,1%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>61,07%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>69,38%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>69,85%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>80,61%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>58,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>66,57; 69,65</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>64,64; 67,99</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>77,74; 80,49</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>58,09; 63,65</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>42,4; 61,78</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>69,18; 72,21</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>71,74; 74,77</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>80,88; 83,49</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>61,76; 64,88</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>56,52; 63,26</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>68,15; 70,43</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>68,75; 70,93</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>79,62; 81,57</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>60,77; 63,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>51,83; 61,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P57_AC_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>54,64; 63,1</t>
+          <t>53,94; 63,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>52,51; 61,49</t>
+          <t>52,01; 61,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,05; 79,23</t>
+          <t>70,51; 78,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>35,26; 52,33</t>
+          <t>35,11; 52,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>56,59; 65,45</t>
+          <t>56,59; 65,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,82; 66,51</t>
+          <t>57,58; 66,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>70,7; 79,01</t>
+          <t>70,38; 78,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37,07; 52,08</t>
+          <t>37,22; 52,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>56,86; 62,68</t>
+          <t>56,76; 63,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>56,41; 62,85</t>
+          <t>56,26; 63,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>71,88; 77,63</t>
+          <t>71,57; 78,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>38,09; 49,86</t>
+          <t>37,91; 50,24</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,63; 66,77</t>
+          <t>59,17; 66,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>58,98; 66,51</t>
+          <t>59,09; 66,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,49; 80,81</t>
+          <t>73,58; 80,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,2; 64,91</t>
+          <t>52,53; 64,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,01; 69,63</t>
+          <t>61,94; 69,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,67; 73,29</t>
+          <t>65,71; 73,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>75,02; 81,45</t>
+          <t>74,79; 81,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,01; 56,5</t>
+          <t>31,17; 56,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61,73; 67,1</t>
+          <t>61,86; 66,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63,49; 68,59</t>
+          <t>63,46; 68,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>75,12; 80,04</t>
+          <t>75,32; 80,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>39,98; 58,04</t>
+          <t>38,9; 58,16</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>64,61; 72,35</t>
+          <t>65,04; 72,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,88; 72,4</t>
+          <t>64,71; 71,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74,7; 81,07</t>
+          <t>74,49; 81,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56,41; 65,04</t>
+          <t>55,81; 65,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>66,67; 73,55</t>
+          <t>66,36; 73,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>70,92; 77,84</t>
+          <t>71,09; 78,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>76,53; 82,73</t>
+          <t>76,23; 82,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>56,47; 63,37</t>
+          <t>56,51; 63,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>66,86; 72,02</t>
+          <t>67,01; 72,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>69,3; 73,99</t>
+          <t>68,89; 73,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>76,51; 81,06</t>
+          <t>76,47; 81,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>57,36; 63,03</t>
+          <t>57,48; 63,06</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,46; 74,81</t>
+          <t>66,58; 74,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,61; 72,37</t>
+          <t>64,92; 72,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,51; 84,01</t>
+          <t>77,61; 84,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,54; 62,37</t>
+          <t>19,84; 62,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,47; 74,08</t>
+          <t>65,9; 73,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,01; 81,72</t>
+          <t>74,73; 81,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>80,73; 86,37</t>
+          <t>80,86; 86,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,43; 65,21</t>
+          <t>51,33; 64,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>67,39; 73,25</t>
+          <t>67,53; 73,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>70,5; 75,91</t>
+          <t>70,94; 76,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>80,04; 84,37</t>
+          <t>80,18; 84,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,09; 62,21</t>
+          <t>30,95; 62,33</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>65,68; 75,34</t>
+          <t>65,46; 75,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>59,16; 69,17</t>
+          <t>58,91; 68,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>77,38; 84,64</t>
+          <t>77,51; 84,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>64,13; 71,34</t>
+          <t>64,25; 71,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>72,03; 80,38</t>
+          <t>72,45; 80,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>68,83; 77,77</t>
+          <t>69,17; 77,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>80,11; 87,03</t>
+          <t>80,37; 87,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>68,2; 74,09</t>
+          <t>68,22; 74,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>70,48; 76,68</t>
+          <t>70,13; 76,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>65,29; 71,86</t>
+          <t>65,63; 71,96</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>80,07; 85,04</t>
+          <t>79,86; 85,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>67,2; 71,86</t>
+          <t>67,28; 71,88</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>72,82; 82,15</t>
+          <t>71,86; 81,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>68,32; 78,68</t>
+          <t>67,67; 77,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>73,01; 82,61</t>
+          <t>73,5; 82,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>62,27; 69,85</t>
+          <t>61,73; 70,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>73,07; 81,68</t>
+          <t>73,47; 81,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>71,93; 80,63</t>
+          <t>71,69; 80,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>85,22; 91,64</t>
+          <t>84,88; 91,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>62,43; 69,01</t>
+          <t>62,25; 68,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>73,95; 80,42</t>
+          <t>74,18; 80,46</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>71,63; 78,51</t>
+          <t>71,85; 78,36</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>80,99; 86,42</t>
+          <t>80,84; 86,48</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>63,34; 68,44</t>
+          <t>63,27; 68,25</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>73,18; 84,4</t>
+          <t>73,44; 84,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>69,51; 80,64</t>
+          <t>69,49; 80,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>79,98; 88,1</t>
+          <t>80,11; 88,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>66,17; 75,02</t>
+          <t>66,14; 75,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>77,02; 85,79</t>
+          <t>76,46; 85,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>72,14; 81,04</t>
+          <t>72,51; 81,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>82,8; 90,57</t>
+          <t>83,55; 90,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>71,23; 77,5</t>
+          <t>71,49; 77,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>77,58; 84,03</t>
+          <t>76,85; 83,85</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>72,73; 79,77</t>
+          <t>72,63; 79,97</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>83,44; 88,83</t>
+          <t>82,92; 88,83</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>70,7; 75,73</t>
+          <t>70,44; 75,73</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>66,57; 69,65</t>
+          <t>66,31; 69,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>64,64; 67,99</t>
+          <t>64,6; 68,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>77,74; 80,49</t>
+          <t>77,55; 80,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>42,4; 61,78</t>
+          <t>42,97; 61,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>69,18; 72,21</t>
+          <t>69,09; 72,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>71,74; 74,77</t>
+          <t>71,68; 74,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>80,88; 83,49</t>
+          <t>80,87; 83,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>56,52; 63,26</t>
+          <t>56,56; 63,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>68,15; 70,43</t>
+          <t>68,26; 70,49</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>68,75; 70,93</t>
+          <t>68,72; 70,99</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>79,62; 81,57</t>
+          <t>79,66; 81,6</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>51,83; 61,76</t>
+          <t>50,74; 61,7</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con apoyo confidencial bajo (Duke)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>290736</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>257333</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>314281</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>171835</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>285451</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>266370</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>295280</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>136065</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>576188</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>523703</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>609560</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>307900</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>266503; 311345</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>234164; 278348</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>295745; 330742</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>138951; 207197</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>264533; 305329</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>246594; 286019</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>277874; 310456</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>113557; 159390</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>545814; 606811</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>494194; 556353</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>582773; 636056</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>265726; 352148</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>464149</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>429762</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>449260</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>248854</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>412451</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>424808</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>438919</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>239065</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>876600</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>854571</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>888178</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>487919</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>435211; 492701</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>403365; 452665</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>427742; 469324</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>221755; 274018</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>386704; 435691</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>400972; 447723</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>418965; 457941</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>158498; 287021</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>841209; 910884</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>820501; 889996</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>859832; 914118</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>362036; 541285</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>438912</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>465109</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>521621</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>322647</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>482426</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>525895</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>524163</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>324041</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>921338</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>991004</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1045783</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>646687</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>414701; 460666</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>438779; 487000</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>497797; 542923</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>297076; 346588</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>457084; 503974</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>502425; 551388</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>501235; 542352</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>305613; 342872</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>888810; 957866</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>953962; 1024451</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1013872; 1074085</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>616798; 676756</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1138</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>367345</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>419510</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>519977</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>388934</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>360162</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>483532</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>538801</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>428491</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>727507</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>903041</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1058778</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>817425</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>344614; 386910</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>396344; 445498</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>498024; 540498</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>174584; 552264</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>339804; 381228</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>459773; 502530</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>520187; 557248</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>361183; 456808</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>697793; 756839</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>869557; 935643</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1030349; 1086559</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>490177; 987132</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>272360</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>272683</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>387572</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>379593</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>309698</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>328290</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>413055</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>385679</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>582058</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>600972</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>800627</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>765272</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>253138; 290116</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>250475; 292784</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>369531; 403803</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>358974; 400135</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>292690; 325620</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>309041; 346219</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>395677; 429498</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>368740; 400670</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>554535; 604884</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>572251; 627447</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>773894; 825083</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>739583; 790063</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>225996</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>225738</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>260885</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>241177</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>266254</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>266726</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>332404</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>257679</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>492250</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>492463</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>593290</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>498856</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>210256; 239696</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>207597; 238618</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>244938; 276163</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>224667; 254895</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>251959; 280653</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>249801; 280972</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>318022; 343680</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>244551; 269876</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>471449; 511309</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>470783; 513427</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>572338; 612259</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>478816; 516527</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>166369</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>185242</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>216073</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>195576</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>272268</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>294757</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>348585</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>310208</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>438637</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>479999</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>564658</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>505783</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>154143; 176646</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>170685; 198715</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>205185; 226554</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>182191; 206898</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>255312; 284557</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>277383; 311829</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>333297; 362936</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>297688; 322653</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>417917; 455984</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>456196; 502307</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>543133; 581871</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>487360; 523984</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2190</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2098</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2541</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2178</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2309</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2395</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2708</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>3498</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>4499</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>4493</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>5249</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>5676</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2225867</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2255376</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2669669</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1948615</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2388711</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>2590376</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2891205</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>2081228</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>4614577</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>4845753</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>5560875</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>4029843</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2170969; 2275537</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2195742; 2312300</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2618813; 2715505</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1473323; 2122379</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>2333250; 2435811</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2536064; 2640140</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2847958; 2934358</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1927645; 2155887</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>4539778; 4688116</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>4767294; 4924822</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>5495187; 5628988</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>3468951; 4218069</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>